--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2263.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2263.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.150408567287147</v>
+        <v>1.165483474731445</v>
       </c>
       <c r="B1">
-        <v>2.239283705228404</v>
+        <v>2.80886173248291</v>
       </c>
       <c r="C1">
-        <v>5.975120748450146</v>
+        <v>5.080277442932129</v>
       </c>
       <c r="D1">
-        <v>2.642519575692809</v>
+        <v>2.088796615600586</v>
       </c>
       <c r="E1">
-        <v>1.223541298721197</v>
+        <v>1.164832472801208</v>
       </c>
     </row>
   </sheetData>
